--- a/static/spreadsheet/pedidos_RMS_contrato_89.xlsx
+++ b/static/spreadsheet/pedidos_RMS_contrato_89.xlsx
@@ -803,25 +803,7 @@
     <t xml:space="preserve">sim</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Garantia – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">RD02-24</t>
-    </r>
+    <t xml:space="preserve">Garantia – RD02-24</t>
   </si>
   <si>
     <t xml:space="preserve">RD02-24</t>
@@ -4280,7 +4262,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4310,12 +4292,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4373,7 +4349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4392,6 +4368,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4651,7 +4631,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7515,6 +7495,9 @@
       <c r="A37" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B37" s="3" t="n">
+        <v>45358</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
@@ -16024,7 +16007,7 @@
       <c r="R159" s="1" t="n">
         <v>1104.2</v>
       </c>
-      <c r="U159" s="0"/>
+      <c r="U159" s="5"/>
       <c r="V159" s="1" t="s">
         <v>398</v>
       </c>

--- a/static/spreadsheet/pedidos_RMS_contrato_89.xlsx
+++ b/static/spreadsheet/pedidos_RMS_contrato_89.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1389">
   <si>
     <t xml:space="preserve">PEDIDOS</t>
   </si>
@@ -4253,14 +4253,88 @@
     <t xml:space="preserve">Esse item vai para EB5003
 	-Alef Barbosa</t>
   </si>
+  <si>
+    <t xml:space="preserve">1BAV-25-R0241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR DATA UNIT ADU3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34-44-00-01-050A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divergência de indicação de velocidade de aproximadamente 20kt entre os ADC 1 e 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divergência de indicação de velocidade de aproximadamente 20kt entre os ADC 1 e 2. Após o teste com resultado insatisfatorio foi trocada as posições das ADUs e pane migrou, acompanhando o equipamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT MMA 34-11-00-791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BAV-25-R0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM offline 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BAV-26-R0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anv EB5005 SN 2869 (MGB SN M5203 ) - TSN 140,2. Realizando a coleta, abre-se mais 3M de disponibilidade até a entrega do resultado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM offline 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BAV-26-R0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anv EB5008 SN 2888 (MGB SN M5194) - TSN 326,2. Realizando a coleta, abre-se mais 3M de disponibilidade até a entrega do resultado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM offline 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BAV-26-R0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anv EB5013 SN 22971 (MGB SN M106) - TSN 267,8. Realizando a coleta, abre-se mais 3M de disponibilidade até a entrega do resultado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM offline 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anv EB5008 SN 2888 (MGB SN M5194 ) - TSN 340 Realizando a coleta, abre-se mais 3M de disponibilidade até a entrega do resultado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMM offline 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BAV-26-R0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fora dos critérios de aceitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesagem anterior foi de 2,010Kg e pesagem atual de 1,900Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante inspeção calendárica de 06M e 12M verificou-se durante a pesagem do extintor de mão perda de peso superior a 10gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT MMA 26-22-00-061
+CT CMM 26-20-30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -4349,7 +4423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4372,6 +4446,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4628,10 +4706,10 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AE248" activeCellId="0" sqref="AE248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21126,6 +21204,395 @@
         <v>1364</v>
       </c>
     </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E242" s="1" t="n">
+        <v>5005</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P242" s="1" t="n">
+        <v>1129.3</v>
+      </c>
+      <c r="R242" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="S242" s="1" t="n">
+        <v>1129.3</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E243" s="1" t="n">
+        <v>5002</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P243" s="1" t="n">
+        <v>1706.5</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="S243" s="1" t="n">
+        <v>1478.2</v>
+      </c>
+      <c r="Z243" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <v>5005</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J244" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="P244" s="1" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="S244" s="1" t="n">
+        <v>1229.2</v>
+      </c>
+      <c r="Z244" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E245" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P245" s="1" t="n">
+        <v>326.2</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S245" s="1" t="n">
+        <v>1263.9</v>
+      </c>
+      <c r="Z245" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>46015</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P246" s="1" t="n">
+        <v>267.8</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="S246" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="Z246" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>46034</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P247" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S247" s="1" t="n">
+        <v>1278.1</v>
+      </c>
+      <c r="Z247" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>46034</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="O248" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R248" s="1" t="n">
+        <v>103988</v>
+      </c>
+      <c r="S248" s="1" t="n">
+        <v>643.1</v>
+      </c>
+      <c r="T248" s="6" t="n">
+        <v>46024</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
